--- a/state.xlsx
+++ b/state.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10563\Desktop\5190\ese5190-2022-lab2-into-the-void-star\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B91E57-1573-4FDA-9E28-8F598949B6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2869EE07-1C83-4CEC-8681-0F0BB0EB9EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="760" windowWidth="19200" windowHeight="11360" xr2:uid="{13923887-2ED2-4363-BD40-286E8EA75E4A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" xr2:uid="{13923887-2ED2-4363-BD40-286E8EA75E4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
   <si>
     <t>L1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,10 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,11 +121,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0000 0000 1111 1111 0000 0000 0000 0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>receiving data of GRENN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -199,6 +195,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -518,7 +517,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -527,22 +526,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
       <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -565,25 +564,25 @@
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -591,21 +590,41 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -681,22 +700,22 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -743,30 +762,28 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="5">
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="H6:M6"/>
     <mergeCell ref="B8:M8"/>
     <mergeCell ref="H1:M1"/>
-    <mergeCell ref="B3:G3"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H3:M3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/state.xlsx
+++ b/state.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10563\Desktop\5190\ese5190-2022-lab2-into-the-void-star\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2869EE07-1C83-4CEC-8681-0F0BB0EB9EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC200929-03CA-4562-BCD9-790B59ED2F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" xr2:uid="{13923887-2ED2-4363-BD40-286E8EA75E4A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
   <si>
     <t>L1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,21 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>number of delay cycles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value of the output shift register</t>
-  </si>
-  <si>
-    <t>value of the SM “X” variable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state driving our LED pin to</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,35 +82,93 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0000 0000 0000 0000 0000 0000 0000 0000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>receiving data of GRENN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
+    <t>delay cycles left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>D2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000 0000 0000 0000 0000 0000 0000 0000 &lt;&lt; 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000 0000 0000 0000 0000 0000 0000 0000 &lt;&lt; 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-&gt;1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-&gt;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SM “X”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED pin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -133,7 +176,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +192,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -158,22 +207,13 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
-    </border>
-    <border diagonalUp="1">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -185,19 +225,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -514,276 +554,477 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23CED5B-D717-470A-B24A-D33A20C026BB}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.75" customWidth="1"/>
+    <col min="1" max="1" width="19.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.08203125" style="1" customWidth="1"/>
+    <col min="3" max="11" width="4.9140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="49.33203125" style="1" customWidth="1"/>
+    <col min="13" max="21" width="4.9140625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="3"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
         <v>4</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>19</v>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>2</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>4</v>
+      </c>
+      <c r="R5" s="3">
+        <v>3</v>
+      </c>
+      <c r="S5" s="3">
+        <v>2</v>
+      </c>
+      <c r="T5" s="3">
+        <v>1</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>13</v>
-      </c>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>13</v>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="1">
-        <v>3</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="1">
-        <v>2</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="1">
-        <v>3</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="B8:M8"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="B1:G1"/>
+  <mergeCells count="4">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="M6:U6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
